--- a/data/trans_dic/P8_1_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P8_1_R-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>6,65; 12,29</t>
+          <t>6,77; 12,36</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>8,23; 14,73</t>
+          <t>8,08; 15,01</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,15; 13,52</t>
+          <t>7,56; 13,34</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5,32; 9,41</t>
+          <t>5,44; 9,79</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>10,97; 19,16</t>
+          <t>11,06; 18,97</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>8,38; 16,25</t>
+          <t>8,44; 16,02</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>8,32; 15,9</t>
+          <t>8,39; 16,1</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>9,6; 14,35</t>
+          <t>9,8; 14,71</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>9,2; 13,7</t>
+          <t>9,16; 13,75</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>9,15; 14,29</t>
+          <t>9,03; 14,12</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>8,71; 13,44</t>
+          <t>8,74; 13,23</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>8,09; 11,16</t>
+          <t>7,83; 11,13</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,27; 8,44</t>
+          <t>3,37; 8,7</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>9,18; 16,33</t>
+          <t>8,95; 15,76</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,97; 13,25</t>
+          <t>7,04; 13,55</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>8,83; 14,86</t>
+          <t>8,67; 14,97</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,71; 8,41</t>
+          <t>3,62; 8,69</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>7,44; 14,58</t>
+          <t>7,62; 14,84</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>7,13; 14,05</t>
+          <t>7,48; 14,41</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>11,57; 17,21</t>
+          <t>11,63; 17,16</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4,03; 7,44</t>
+          <t>4,13; 7,5</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>9,08; 14,35</t>
+          <t>9,24; 14,17</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>7,88; 12,64</t>
+          <t>8,0; 12,65</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>11,01; 15,17</t>
+          <t>10,97; 15,08</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>9,15; 14,62</t>
+          <t>9,03; 14,51</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>13,87; 20,63</t>
+          <t>13,8; 20,3</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>11,86; 18,33</t>
+          <t>12,07; 17,8</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>15,73; 79,42</t>
+          <t>16,4; 81,74</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>17,89; 31,4</t>
+          <t>17,92; 31,31</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>19,8; 30,3</t>
+          <t>19,57; 30,95</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>16,44; 31,41</t>
+          <t>17,58; 31,63</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>22,48; 32,94</t>
+          <t>22,56; 33,24</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>12,13; 17,27</t>
+          <t>11,96; 17,22</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>16,32; 22,22</t>
+          <t>16,49; 22,15</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>14,39; 20,39</t>
+          <t>14,27; 20,02</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>19,0; 76,79</t>
+          <t>18,96; 76,33</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>12,85; 16,8</t>
+          <t>12,69; 16,54</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>14,79; 19,43</t>
+          <t>14,84; 19,52</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>13,66; 18,11</t>
+          <t>13,76; 18,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>15,97; 20,62</t>
+          <t>16,24; 21,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>15,99; 21,55</t>
+          <t>15,85; 21,5</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>13,42; 18,84</t>
+          <t>13,37; 18,88</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>14,1; 19,42</t>
+          <t>14,22; 19,41</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>6,55; 16,53</t>
+          <t>6,1; 16,62</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>14,56; 17,8</t>
+          <t>14,47; 17,72</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>14,9; 18,51</t>
+          <t>14,77; 18,32</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>14,46; 17,9</t>
+          <t>14,53; 17,71</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>10,81; 18,08</t>
+          <t>11,37; 18,13</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>10,9; 18,05</t>
+          <t>10,83; 18,2</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>13,93; 20,75</t>
+          <t>14,02; 20,68</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>17,4; 23,87</t>
+          <t>17,17; 23,52</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>17,87; 25,03</t>
+          <t>17,41; 24,85</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>16,94; 23,87</t>
+          <t>16,72; 23,28</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>30,28; 37,38</t>
+          <t>29,91; 37,15</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>25,16; 32,09</t>
+          <t>25,66; 32,21</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>19,69; 30,21</t>
+          <t>18,2; 30,08</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>15,46; 20,9</t>
+          <t>15,25; 20,36</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>24,38; 29,48</t>
+          <t>24,47; 29,49</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>22,65; 27,4</t>
+          <t>22,49; 27,22</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>20,08; 27,22</t>
+          <t>19,99; 27,13</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,24; 4,81</t>
+          <t>1,23; 4,88</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,85; 6,61</t>
+          <t>1,82; 6,83</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,76; 4,44</t>
+          <t>0,74; 4,48</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,63; 3,72</t>
+          <t>0,64; 3,41</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>27,07; 32,13</t>
+          <t>27,19; 32,51</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>31,74; 37,6</t>
+          <t>31,58; 37,42</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>27,19; 33,14</t>
+          <t>27,29; 33,4</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>28,93; 34,58</t>
+          <t>28,8; 34,41</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>22,36; 26,56</t>
+          <t>22,02; 26,43</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>25,98; 31,04</t>
+          <t>26,12; 31,08</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>21,74; 26,87</t>
+          <t>21,92; 26,89</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>21,97; 26,72</t>
+          <t>21,94; 26,8</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>10,13; 12,29</t>
+          <t>10,2; 12,35</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>13,43; 15,94</t>
+          <t>13,23; 15,91</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>12,76; 15,05</t>
+          <t>12,69; 15,12</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>14,12; 39,53</t>
+          <t>14,24; 38,68</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>19,97; 22,89</t>
+          <t>20,08; 22,92</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>23,82; 26,79</t>
+          <t>23,78; 26,81</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>21,02; 24,09</t>
+          <t>21,15; 24,07</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>17,09; 22,67</t>
+          <t>16,78; 22,58</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>15,45; 17,27</t>
+          <t>15,5; 17,26</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>19,11; 21,14</t>
+          <t>19,02; 21,1</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>17,41; 19,36</t>
+          <t>17,35; 19,29</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>17,31; 30,32</t>
+          <t>17,41; 33,39</t>
         </is>
       </c>
     </row>
@@ -1646,4 +1647,1630 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con limitación a hacer esfuerzos moderados</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>43163</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>48735</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>42931</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>36685</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>45304</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>36854</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>41463</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>53310</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>88467</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>85589</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>84394</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>89995</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>32095; 58550</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>35336; 65633</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>32433; 57251</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>27474; 49439</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>33930; 58190</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>26537; 50362</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>29101; 55884</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>43866; 65836</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>71509; 107297</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>67900; 106098</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>67803; 102699</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>74621; 105998</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>19685</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>50561</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>37194</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>53082</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>21391</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>36657</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>38471</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>55373</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>41076</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>87217</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>75665</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>108455</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>12352; 31915</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>37491; 65985</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>26566; 51112</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>39193; 67681</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>13477; 32326</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>25755; 50159</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>27830; 53631</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>44506; 65646</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>30506; 55427</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>69959; 107228</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>59986; 94836</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>91596; 125901</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>63325</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>106384</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>76973</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>316020</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>39836</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>64792</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>39541</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>45950</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>103161</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>171176</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>116515</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>361970</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>48953; 78708</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>86881; 127780</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>63014; 92877</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>109616; 546217</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>30067; 52534</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>50909; 80508</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>29198; 52539</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>37657; 55481</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>84902; 122261</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>146710; 197014</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>98187; 137752</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>158376; 637510</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>189</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>183</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>239</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>239</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>320</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>293</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>298</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>478</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>181305</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>197762</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>181209</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>191117</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>132498</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>121899</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>137041</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>123884</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>313803</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>319661</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>318250</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>315001</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>157150; 204827</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>171964; 226295</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>158190; 206929</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>168013; 217312</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>113227; 153590</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>102473; 144756</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>117425; 160340</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>59700; 162592</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>282532; 345920</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>284335; 352724</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>287049; 349946</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>228890; 364900</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>237</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>191</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>430</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>320</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>323</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>554</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>49756</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>88207</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>125773</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>100186</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>113711</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>255486</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>212680</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>220305</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>163467</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>343693</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>338454</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>320491</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>37955; 63801</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>71568; 105567</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>106580; 145990</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>82691; 118056</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>95115; 132385</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>227747; 282873</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>189398; 237818</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>153119; 253070</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>140211; 187150</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>311336; 375126</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>305689; 369892</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>263127; 357164</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>355</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>354</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>461</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>363</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>363</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>283</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>467</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>7631</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>9740</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>6346</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>3875</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>370201</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>381596</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>327260</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>241423</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>377832</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>391336</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>333606</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>245297</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>3677; 14553</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>4858; 18231</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>2137; 12856</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>1542; 8206</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>339504; 405985</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>350360; 415085</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>295311; 361434</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>219264; 261952</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>340645; 408841</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>359499; 427712</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>300104; 368206</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>219841; 268472</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>375</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>453</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>468</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>574</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>697</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>826</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>692</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>1406</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>1072</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>1279</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>1160</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>1980</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>364865</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>501388</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>470427</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>700964</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>722942</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>897283</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>796456</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>740244</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>1087807</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>1398671</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>1266883</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>1441208</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>333481; 403832</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>452755; 544446</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>429766; 511778</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>480822; 1305741</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>678265; 774330</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>844071; 951682</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>747044; 849928</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>600467; 807702</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>1030518; 1147711</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>1325911; 1470793</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>1199945; 1334460</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>1211002; 2321550</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P8_1_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P8_1_R-Clase-trans_dic.xlsx
@@ -1347,7 +1347,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2837,7 +2837,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
